--- a/3.Doc/User_import_template.xlsx
+++ b/3.Doc/User_import_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\fcdc\3.Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_FCDC\FCDC_Version1.1\3.Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64E02E6-19F3-4E6F-8234-6B1337A3F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,19 +81,19 @@
     <t>linh@gmail.com</t>
   </si>
   <si>
-    <t>0235659468</t>
-  </si>
-  <si>
     <t>21/05/2021</t>
   </si>
   <si>
-    <t>0986047231</t>
+    <t>0986043333</t>
+  </si>
+  <si>
+    <t>0235654444</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,6 +232,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -266,6 +284,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,11 +476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +543,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -537,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -546,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -596,8 +631,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -605,7 +640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -617,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
